--- a/addressbook-web-tests/addressbook-web-tests/groups.xlsx
+++ b/addressbook-web-tests/addressbook-web-tests/groups.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aipov\source\repos\csharp_training\addressbook-web-tests\addressbook-test-data-generators\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aipov\Source\Repos\csharp_training\addressbook-web-tests\addressbook-test-data-generators\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,48 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>C&amp;H(</t>
+    <t>N5336IW</t>
   </si>
   <si>
-    <t>:?4XFT</t>
+    <t>P1&amp;&amp;0W</t>
   </si>
   <si>
-    <t>WA:@?2;PZ</t>
-  </si>
-  <si>
-    <t>X2?#H&lt;B^\</t>
-  </si>
-  <si>
-    <t>*H</t>
-  </si>
-  <si>
-    <t>X8WB2RQ!</t>
-  </si>
-  <si>
-    <t>\,V</t>
-  </si>
-  <si>
-    <t>(EAT0CF</t>
-  </si>
-  <si>
-    <t>6J</t>
-  </si>
-  <si>
-    <t>T#R\K</t>
-  </si>
-  <si>
-    <t>N/NC(J</t>
-  </si>
-  <si>
-    <t>)^)\UaD</t>
-  </si>
-  <si>
-    <t>SQ;9;=[%.</t>
-  </si>
-  <si>
-    <t>"-"?O_</t>
+    <t>HBS</t>
   </si>
 </sst>
 </file>
@@ -384,9 +351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -395,51 +364,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
